--- a/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-活性不活性.xlsx
+++ b/doc/30_詳細設計/01_画面系/【CS】詳細設計-画面制御仕様書-活性不活性.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\30_詳細設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86E905B9-448F-4BB1-84A6-9B41C1847724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01AE0E-CB07-4A2F-8475-327AE4D2AB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PetHotel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>全機能</t>
     <rPh sb="0" eb="3">
       <t>ゼンキノウ</t>
@@ -262,6 +258,10 @@
     <rPh sb="24" eb="26">
       <t>ホンニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CS</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -889,6 +889,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -898,110 +904,104 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,7 +1357,7 @@
   </sheetPr>
   <dimension ref="E6:T19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
@@ -1369,7 +1369,7 @@
     <row r="6" spans="5:20" ht="18.600000000000001" thickBot="1"/>
     <row r="7" spans="5:20" ht="18" customHeight="1">
       <c r="E7" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -1658,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7">
         <v>45041</v>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="80" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18"/>
@@ -1910,162 +1910,162 @@
   <sheetData>
     <row r="1" spans="3:19" ht="18.600000000000001" thickBot="1"/>
     <row r="2" spans="3:19" ht="36.9" customHeight="1">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
     </row>
     <row r="3" spans="3:19" s="23" customFormat="1" ht="38.4" customHeight="1" thickBot="1">
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
+      <c r="E3" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="I3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="46"/>
-      <c r="O3" s="47"/>
+      <c r="M3" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
       <c r="P3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="57">
+      <c r="Q3" s="65">
         <v>45041</v>
       </c>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="66"/>
     </row>
     <row r="4" spans="3:19" ht="13.65" customHeight="1" thickBot="1">
       <c r="C4" s="8"/>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="49" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="49" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="49" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="51"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="3:19" ht="18.600000000000001" thickBot="1">
-      <c r="C6" s="48"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="59"/>
     </row>
     <row r="7" spans="3:19" ht="64.2" customHeight="1">
       <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="33" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="36" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="35"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" spans="3:19" ht="68.400000000000006" customHeight="1">
       <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -2075,24 +2075,24 @@
       <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="33" t="s">
+      <c r="D9" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="45"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -2102,24 +2102,24 @@
       <c r="C10" s="19">
         <v>4</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="33" t="s">
+      <c r="D10" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="39" t="s">
+      <c r="H10" s="36"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -2129,55 +2129,55 @@
       <c r="C11" s="19">
         <v>5</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="33" t="s">
+      <c r="D11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="39" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="63"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
     </row>
     <row r="12" spans="3:19" ht="121.2" customHeight="1">
       <c r="C12" s="19">
         <v>6</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="33" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" spans="3:19">
       <c r="C13" s="19"/>
@@ -2599,25 +2599,45 @@
     </row>
     <row r="35" spans="3:19" ht="18.600000000000001" thickBot="1">
       <c r="C35" s="11"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J9:O9"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:S6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="J5:O6"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P12:S12"/>
     <mergeCell ref="P11:S11"/>
@@ -2634,26 +2654,6 @@
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:S6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="J5:O6"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J9:O9"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
